--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -35,9 +35,9 @@
 Only 1 left at this price
 Special Discount
 10% off
-₹ 6,163
-₹ 5,488
-Total price: ₹ 32,440
+₹ 6,168
+₹ 5,493
+Total price: ₹ 32,467
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -52,8 +52,8 @@
 Entire unit 59㎡
 2 bedrooms
 2 beds
-₹ 5,239
-Total price: ₹ 30,881
+₹ 5,243
+Total price: ₹ 30,906
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -68,8 +68,8 @@
 Family Room
 x4
 Free Cancellation
-₹ 20,818
-Total price: ₹ 133,235
+₹ 20,835
+Total price: ₹ 133,346
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -84,8 +84,8 @@
 2 bedrooms
 2 beds
 Only 1 left at this price
-₹ 5,058
-Total price: ₹ 29,337
+₹ 5,062
+Total price: ₹ 29,361
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -96,9 +96,9 @@
 Near Yaya CentreShow on Map
 Standard Quadruple Room
 x4
-Last booked 8 hrs ago
-₹ 4,785
-Total price: ₹ 29,391
+Last booked 13 hrs ago
+₹ 4,789
+Total price: ₹ 29,416
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -114,8 +114,8 @@
 x4
 Free Cancellation
 Breakfast included
-₹ 203,399
-Total price: ₹ 1,284,055
+₹ 203,568
+Total price: ₹ 1,285,122
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -129,8 +129,8 @@
 Entire unit
 3 bedrooms
 4 beds
-₹ 4,459
-Total price: ₹ 26,263
+₹ 4,463
+Total price: ₹ 26,285
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -138,8 +138,8 @@
     <t>Yaya Hotel &amp; Apartments
 9.4/10
 Amazing49 reviews
-"Clean and tidy"
-"Great service"
+"Great stay!"
+"Great amenities"
 Near Yaya CentreShow on Map
 No. 19 of 4-Star Select Hotels in Nairobi
 Two-Bedroom Luxury Apartment
@@ -148,12 +148,12 @@
 2 bedrooms
 2 beds
 Free Cancellation
-Earn ₹ 948.72 in Trip Coins
+Earn ₹ 963.51 in Trip Coins
 Limited Time Offer
-16% off
-₹ 19,673
-₹ 16,077
-Total price: ₹ 94,854
+15% off
+₹ 19,649
+₹ 16,318
+Total price: ₹ 96,273
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -170,9 +170,9 @@
 3 beds
 Special Discount
 ₹ 112 off
-₹ 4,441
-₹ 4,329
-Total price: ₹ 25,552
+₹ 4,445
+₹ 4,333
+Total price: ₹ 25,574
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -189,9 +189,9 @@
 Entire unit 108㎡
 2 bedrooms
 2 beds
-Last booked 2 hrs ago
-₹ 23,950
-Total price: ₹ 149,687
+Last booked 7 hrs ago
+₹ 23,970
+Total price: ₹ 149,811
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -199,7 +199,7 @@
     <t>Arcadia Hotel
 Renovated in 2025
 8.8/10
-Very good14 reviews
+Very good13 reviews
 Near Yaya CentreShow on Map
 Two-Bedroom Suite
 x4
@@ -208,8 +208,8 @@
 2 beds
 Free Cancellation
 Only 5 left at this price
-₹ 7,704
-Total price: ₹ 44,682
+₹ 7,710
+Total price: ₹ 44,720
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -227,13 +227,13 @@
 3 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 2,506.77 in Trip Coins
+Earn ₹ 2,508.57 in Trip Coins
 Only 1 left at this price
 Special Discount
 20% off
-₹ 36,674
-₹ 28,320
-Total price: ₹ 167,085
+₹ 36,704
+₹ 28,343
+Total price: ₹ 167,224
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -250,8 +250,8 @@
 Family Room
 x4
 Free Cancellation
-₹ 20,818
-Total price: ₹ 133,235
+₹ 20,835
+Total price: ₹ 133,346
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -263,8 +263,8 @@
 Two Bedroom Apartment
 x4
 Breakfast included
-₹ 18,328
-Total price: ₹ 112,719
+₹ 18,344
+Total price: ₹ 112,812
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -283,13 +283,13 @@
 2 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 1,323.34 in Trip Coins
+Earn ₹ 1,324.72 in Trip Coins
 Only 5 left at this price
 Special Discount
 8% off
-₹ 16,404
-₹ 14,951
-Total price: ₹ 88,205
+₹ 16,415
+₹ 14,962
+Total price: ₹ 88,269
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -305,8 +305,8 @@
 Two-Bedroom Residence
 x4
 Free Cancellation
-₹ 19,886
-Total price: ₹ 124,286
+₹ 19,902
+Total price: ₹ 124,389
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -323,13 +323,13 @@
 Entire apartment 95㎡
 2 bedrooms
 3 beds
-Earn ₹ 547.03 in Trip Coins
+Earn ₹ 547.22 in Trip Coins
 Only 3 left at this price
 Special Discount
 11% off
-₹ 7,141
-₹ 6,283
-Total price: ₹ 36,444
+₹ 7,147
+₹ 6,289
+Total price: ₹ 36,474
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -343,8 +343,8 @@
 Executive Two-Bedroom Apartment
 x4
 Only 1 left at this price
-₹ 9,562
-Total price: ₹ 56,417
+₹ 9,570
+Total price: ₹ 56,464
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -362,8 +362,8 @@
 1 bedroom
 4 beds
 Breakfast included
-₹ 36,895
-Total price: ₹ 217,678
+₹ 36,968
+Total price: ₹ 218,111
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -376,8 +376,8 @@
 Near Giraffe manorShow on Map
 Executive Suite
 x4
-₹ 29,260
-Total price: ₹ 187,305
+₹ 29,284
+Total price: ₹ 187,461
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -385,18 +385,18 @@
     <t>Somerset Westview Nairobi
 8.9/10
 Very good55 reviews
-"Clean and tidy"
-"Great stay!"
+"Great service"
+"Great rooms"
 Near Yaya CentreShow on Map
 No. 20 of 4-Star Select Hotels in Nairobi
 Two-Bedroom Suite
 x4
-Earn ₹ 1,149.12 in Trip Coins
+Earn ₹ 1,150.44 in Trip Coins
 Special Discount
 15% off
-₹ 22,360
-₹ 18,305
-Total price: ₹ 114,866
+₹ 22,378
+₹ 18,321
+Total price: ₹ 114,962
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -412,10 +412,10 @@
 2
 Deluxe Room With Two Double Beds
 Free Cancellation
-Earn ₹ 1,697.05 in Trip Coins
-Last booked 12 hrs ago
-₹ 13,576
-Total price: ₹ 169,703
+Earn ₹ 1,698.57 in Trip Coins
+Last booked 17 hrs ago
+₹ 13,588
+Total price: ₹ 169,844
 2 rooms × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -514,7 +514,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>11</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>13</v>

--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>After Searched</t>
   </si>
@@ -34,10 +34,10 @@
 Breakfast included
 Only 1 left at this price
 Special Discount
-10% off
-₹ 6,168
-₹ 5,493
-Total price: ₹ 32,467
+13% off
+₹ 6,202
+₹ 5,286
+Total price: ₹ 31,233
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -52,15 +52,15 @@
 Entire unit 59㎡
 2 bedrooms
 2 beds
-₹ 5,243
-Total price: ₹ 30,906
+₹ 5,244
+Total price: ₹ 30,910
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
 9.7/10
-Amazing94 reviews
+Amazing95 reviews
 "Great location"
 "Great service"
 Near Village MarketShow on Map
@@ -68,8 +68,8 @@
 Family Room
 x4
 Free Cancellation
-₹ 20,835
-Total price: ₹ 133,346
+₹ 20,796
+Total price: ₹ 133,093
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -84,8 +84,8 @@
 2 bedrooms
 2 beds
 Only 1 left at this price
-₹ 5,062
-Total price: ₹ 29,361
+₹ 5,063
+Total price: ₹ 29,365
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -96,9 +96,9 @@
 Near Yaya CentreShow on Map
 Standard Quadruple Room
 x4
-Last booked 13 hrs ago
-₹ 4,789
-Total price: ₹ 29,416
+Last booked 10 hrs ago
+₹ 4,790
+Total price: ₹ 29,420
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -114,14 +114,15 @@
 x4
 Free Cancellation
 Breakfast included
-₹ 203,568
-Total price: ₹ 1,285,122
+Last booked 3 hrs ago
+₹ 204,454
+Total price: ₹ 1,290,721
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>The King Post
-7.6/10
+7.7/10
 Good17 reviews
 Near The Sarit Expo CentreShow on Map
 Three-Bedroom Apartment
@@ -129,8 +130,8 @@
 Entire unit
 3 bedrooms
 4 beds
-₹ 4,463
-Total price: ₹ 26,285
+₹ 4,445
+Total price: ₹ 26,198
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -138,8 +139,8 @@
     <t>Yaya Hotel &amp; Apartments
 9.4/10
 Amazing49 reviews
+"Great service"
 "Great stay!"
-"Great amenities"
 Near Yaya CentreShow on Map
 No. 19 of 4-Star Select Hotels in Nairobi
 Two-Bedroom Luxury Apartment
@@ -148,12 +149,12 @@
 2 bedrooms
 2 beds
 Free Cancellation
-Earn ₹ 963.51 in Trip Coins
+Earn ₹ 949.58 in Trip Coins
 Limited Time Offer
-15% off
-₹ 19,649
-₹ 16,318
-Total price: ₹ 96,273
+16% off
+₹ 19,692
+₹ 16,093
+Total price: ₹ 94,948
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -170,9 +171,9 @@
 3 beds
 Special Discount
 ₹ 112 off
-₹ 4,445
-₹ 4,333
-Total price: ₹ 25,574
+₹ 4,460
+₹ 4,348
+Total price: ₹ 25,664
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -180,8 +181,8 @@
     <t>Pan Pacific Serviced Suites Nairobi
 9.4/10
 Amazing48 reviews
+"Great location"
 "Great rooms"
-"Great location"
 Near National Museum of KenyaShow on Map
 No. 13 of Premium Hotels in Nairobi
 Two Bedroom Suite King &amp; Twin
@@ -189,27 +190,33 @@
 Entire unit 108㎡
 2 bedrooms
 2 beds
-Last booked 7 hrs ago
-₹ 23,970
-Total price: ₹ 149,811
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Arcadia Hotel
-Renovated in 2025
-8.8/10
-Very good13 reviews
-Near Yaya CentreShow on Map
-Two-Bedroom Suite
-x4
-Entire unit 110㎡
-2 bedrooms
-2 beds
-Free Cancellation
+₹ 24,689
+Total price: ₹ 154,305
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Lux Suites Riara One Residency Angama
+Opened in 2025
+9.9/10
+Outstanding18 reviews
+"Clean and tidy"
+"Great location"
+Near Yaya CentreShow on Map
+Family Room
+x4
+Entire apartment 98㎡
+2 bedrooms
+2 beds
+Free Cancellation
+Breakfast included
+Earn ₹ 1,324.53 in Trip Coins
 Only 5 left at this price
-₹ 7,710
-Total price: ₹ 44,720
+Special Discount
+8% off
+₹ 16,412
+₹ 14,958
+Total price: ₹ 88,249
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -227,13 +234,13 @@
 3 beds
 Free Cancellation
 Breakfast included
-Earn ₹ 2,508.57 in Trip Coins
+Earn ₹ 2,509.03 in Trip Coins
 Only 1 left at this price
 Special Discount
 20% off
-₹ 36,704
-₹ 28,343
-Total price: ₹ 167,224
+₹ 36,709
+₹ 28,347
+Total price: ₹ 167,247
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -242,7 +249,7 @@
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
 Ad
 9.7/10
-Amazing94 reviews
+Amazing95 reviews
 "Great location"
 "Great service"
 Near Village MarketShow on Map
@@ -250,8 +257,8 @@
 Family Room
 x4
 Free Cancellation
-₹ 20,835
-Total price: ₹ 133,346
+₹ 20,796
+Total price: ₹ 133,093
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -263,33 +270,28 @@
 Two Bedroom Apartment
 x4
 Breakfast included
-₹ 18,344
-Total price: ₹ 112,812
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Lux Suites Riara One Residency Angama
-Opened in 2025
-9.9/10
-Outstanding17 reviews
-"Clean and tidy"
-"Great location"
-Near Yaya CentreShow on Map
-Family Room
-x4
-Entire apartment 98㎡
-2 bedrooms
-2 beds
-Free Cancellation
-Breakfast included
-Earn ₹ 1,324.72 in Trip Coins
-Only 5 left at this price
+₹ 18,488
+Total price: ₹ 113,703
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Highlands Suites Hotel Apartments
+8.3/10
+Very good27 reviews
+Near Yaya CentreShow on Map
+Two-Bedroom Apartment
+x4
+Entire unit
+2 bedrooms
+2 beds
+Free Cancellation
+Only 1 left at this price
 Special Discount
-8% off
-₹ 16,415
-₹ 14,962
-Total price: ₹ 88,269
+10% off
+₹ 11,072
+₹ 9,861
+Total price: ₹ 58,284
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -297,42 +299,72 @@
   <si>
     <t>Mövenpick Hotel &amp; Residences Nairobi
 9.0/10
-Great97 reviews
+Great96 reviews
 "Great service"
 "Great location"
 Near The Sarit Expo CentreShow on Map
-No. 1 of Gourmet Hotels in Nairobi
+No. 2 of Gourmet Hotels in Nairobi
 Two-Bedroom Residence
 x4
 Free Cancellation
-₹ 19,902
-Total price: ₹ 124,389
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Kester International Apartment Hotel
-Opened in 2025
-9.8/10
-Outstanding28 reviews
-"Great service"
-"Great rooms"
-Near Yaya CentreShow on Map
-Boutique 2-bedroom And 1-living Room Suite
-x4
-Entire apartment 95㎡
-2 bedrooms
-3 beds
-Earn ₹ 547.22 in Trip Coins
-Only 3 left at this price
-Special Discount
-11% off
-₹ 7,147
-₹ 6,289
-Total price: ₹ 36,474
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+Last booked 8 hrs ago
+₹ 21,241
+Total price: ₹ 132,759
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Maskan Suites
+8.9/10
+Very good34 reviews
+Near Yaya CentreShow on Map
+Superior Apartment, 2 Bedrooms, Private Bathroom, City View
+x4
+Entire apartment
+2 bedrooms
+2 beds
+Member deal
+₹ 6,952
+Total price: ₹ 40,981
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Arcadia Hotel
+Renovated in 2025
+8.8/10
+Very good13 reviews
+Near Yaya CentreShow on Map
+Two-Bedroom Suite
+x4
+Entire unit 110㎡
+2 bedrooms
+2 beds
+Free Cancellation
+Only 5 left at this price
+₹ 7,711
+Total price: ₹ 44,726
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Windsor Golf Hotel &amp; Country Club
+New to Trip.com
+8.8/10
+Very good64 reviews
+9.7 km from centreShow on Map
+No. 6 of 4-Star Select Hotels in Nairobi
+Two- Bedroom Cottage
+x4
+Entire unit 65㎡
+1 bedroom
+4 beds
+Breakfast included
+₹ 36,972
+Total price: ₹ 218,132
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Lavington Residences By Trianum
@@ -343,29 +375,11 @@
 Executive Two-Bedroom Apartment
 x4
 Only 1 left at this price
-₹ 9,570
-Total price: ₹ 56,464
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Windsor Golf Hotel &amp; Country Club
-New to Trip.com
-8.9/10
-Very good64 reviews
-9.7 km from centreShow on Map
-No. 6 of 4-Star Select Hotels in Nairobi
-Two- Bedroom Cottage
-x4
-Entire unit 65㎡
-1 bedroom
-4 beds
-Breakfast included
-₹ 36,968
-Total price: ₹ 218,111
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+₹ 9,572
+Total price: ₹ 56,472
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>Four Points by Sheraton Nairobi Hurlingham
@@ -376,8 +390,9 @@
 Near Giraffe manorShow on Map
 Executive Suite
 x4
-₹ 29,284
-Total price: ₹ 187,461
+Last booked 2 hrs ago
+₹ 29,288
+Total price: ₹ 187,487
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -386,17 +401,17 @@
 8.9/10
 Very good55 reviews
 "Great service"
-"Great rooms"
+"Great stay!"
 Near Yaya CentreShow on Map
 No. 20 of 4-Star Select Hotels in Nairobi
 Two-Bedroom Suite
 x4
-Earn ₹ 1,150.44 in Trip Coins
+Earn ₹ 1,126.67 in Trip Coins
 Special Discount
 15% off
-₹ 22,378
-₹ 18,321
-Total price: ₹ 114,962
+₹ 21,927
+₹ 17,951
+Total price: ₹ 112,644
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
@@ -411,11 +426,10 @@
 No. 3 of 4-Star Select Hotels in Nairobi
 2
 Deluxe Room With Two Double Beds
-Free Cancellation
-Earn ₹ 1,698.57 in Trip Coins
-Last booked 17 hrs ago
-₹ 13,588
-Total price: ₹ 169,844
+Earn ₹ 1,699.49 in Trip Coins
+Last booked 1 min ago on our site
+₹ 13,589
+Total price: ₹ 169,867
 2 rooms × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
@@ -514,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>11</v>
@@ -525,7 +539,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>13</v>
@@ -572,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -583,22 +597,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="0">
+      <c r="B13" t="s" s="0">
         <v>18</v>
       </c>
     </row>

--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>After Searched</t>
   </si>
@@ -25,33 +25,36 @@
   <si>
     <t>YEZA INN
 Opened in 2025
-8.5/10
-Very good2 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Very good
+2 reviews
+8.5
 2-bed Room
-x4
+2 queen beds
+4 adults
 Free Cancellation
 Breakfast included
 Only 1 left at this price
+₹ 6,178
+₹ 5,436
+Total price: ₹ 32,137
+1 room × 5 nights incl. taxes &amp; fees
 Special Discount
-13% off
-₹ 6,202
-₹ 5,286
-Total price: ₹ 31,233
-1 room × 5 nights incl. taxes &amp; fees
+11% off
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Woodmere Serviced Apartment
-8.6/10
-Very good70 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Very good
+70 reviews
+8.6
 Standard Two-Bedroom Apartment
-x4
 Entire unit 59㎡
 2 bedrooms
 2 beds
+4 adults
 ₹ 5,244
 Total price: ₹ 30,910
 1 room × 5 nights incl. taxes &amp; fees
@@ -59,14 +62,15 @@
   </si>
   <si>
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
-9.7/10
-Amazing95 reviews
-"Great location"
-"Great service"
-Near Village MarketShow on Map
+Near Village MarketMap
+Great locationGreat service
 No. 13 of 4-Star Select Hotels in Nairobi
+Amazing
+95 reviews
+9.7
 Family Room
-x4
+2 single beds
+4 adults
 Free Cancellation
 ₹ 20,796
 Total price: ₹ 133,093
@@ -75,14 +79,15 @@
   </si>
   <si>
     <t>Javilla Eagles Safari Guest house
-7.7/10
-Good34 reviews
-8.4 km from centreShow on Map
+8.4 km from centreMap
+Good
+34 reviews
+7.7
 Comfort Apartment, 2 Bedrooms, Non Smoking, Ground Floor
-x4
 Entire unit 55㎡
 2 bedrooms
 2 beds
+4 adults
 Only 1 left at this price
 ₹ 5,063
 Total price: ₹ 29,365
@@ -91,12 +96,14 @@
   </si>
   <si>
     <t>Kenya Comfort Suites
-7.9/10
-Good11 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Good
+11 reviews
+7.9
 Standard Quadruple Room
-x4
-Last booked 10 hrs ago
+4 single beds
+4 adults
+Last booked 11 hrs ago
 ₹ 4,790
 Total price: ₹ 29,420
 1 room × 5 nights incl. taxes &amp; fees
@@ -104,17 +111,18 @@
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi
-9.8/10
-Outstanding46 reviews
-"Great stay!"
-"Great service"
-Near National Museum of KenyaShow on Map
+Near National Museum of KenyaMap
+Great stay!Great service
 No. 1 of Luxury Hotels in Nairobi
+Outstanding
+46 reviews
+9.8
 3 Bedroom Apartment, Bedroom 1: 1 King, Bedroom 2: 1 King, Bedroom 3: 2 Doubles
-x4
+1 king bed
+4 adults
 Free Cancellation
 Breakfast included
-Last booked 3 hrs ago
+Last booked 4 hrs ago
 ₹ 204,454
 Total price: ₹ 1,290,721
 1 room × 5 nights incl. taxes &amp; fees
@@ -122,14 +130,15 @@
   </si>
   <si>
     <t>The King Post
-7.7/10
-Good17 reviews
-Near The Sarit Expo CentreShow on Map
+Near The Sarit Expo CentreMap
+Good
+17 reviews
+7.7
 Three-Bedroom Apartment
-x6
 Entire unit
 3 bedrooms
 4 beds
+6 adults
 ₹ 4,445
 Total price: ₹ 26,198
 1 room × 5 nights incl. taxes &amp; fees
@@ -137,59 +146,58 @@
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments
-9.4/10
-Amazing49 reviews
-"Great service"
-"Great stay!"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Great serviceGreat stay!
 No. 19 of 4-Star Select Hotels in Nairobi
+Amazing
+49 reviews
+9.4
 Two-Bedroom Luxury Apartment
-x4
 Entire unit 125㎡
 2 bedrooms
 2 beds
-Free Cancellation
-Earn ₹ 949.58 in Trip Coins
+4 adults
+Free Cancellation
+₹ 19,692
+₹ 16,093
+Total price: ₹ 94,950
+1 room × 5 nights incl. taxes &amp; fees
 Limited Time Offer
 16% off
-₹ 19,692
-₹ 16,093
-Total price: ₹ 94,948
-1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Eldon Apartments &amp; Suites
-7.1/10
+Near Wilson AirportMap
 5 reviews
-Near Wilson AirportShow on Map
+7.1
 Standard Two-Bedroom Apartment
-x4
 Entire apartment 18㎡
 2 bedrooms
 3 beds
+4 adults
+₹ 4,460
+₹ 4,348
+Total price: ₹ 25,665
+1 room × 5 nights incl. taxes &amp; fees
 Special Discount
 ₹ 112 off
-₹ 4,460
-₹ 4,348
-Total price: ₹ 25,664
-1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
     <t>Pan Pacific Serviced Suites Nairobi
-9.4/10
-Amazing48 reviews
-"Great location"
-"Great rooms"
-Near National Museum of KenyaShow on Map
+Near National Museum of KenyaMap
+Great locationGreat rooms
 No. 13 of Premium Hotels in Nairobi
+Amazing
+48 reviews
+9.4
 Two Bedroom Suite King &amp; Twin
-x4
 Entire unit 108㎡
 2 bedrooms
 2 beds
+4 adults
 ₹ 24,689
 Total price: ₹ 154,305
 1 room × 5 nights incl. taxes &amp; fees
@@ -198,64 +206,84 @@
   <si>
     <t>Lux Suites Riara One Residency Angama
 Opened in 2025
-9.9/10
-Outstanding18 reviews
-"Clean and tidy"
-"Great location"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Clean and tidyGreat location
+Outstanding
+18 reviews
+9.9
 Family Room
-x4
 Entire apartment 98㎡
 2 bedrooms
 2 beds
+4 adults
 Free Cancellation
 Breakfast included
-Earn ₹ 1,324.53 in Trip Coins
 Only 5 left at this price
+₹ 16,415
+₹ 14,962
+Total price: ₹ 88,269
+1 room × 5 nights incl. taxes &amp; fees
 Special Discount
 8% off
-₹ 16,412
-₹ 14,958
-Total price: ₹ 88,249
-1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Palacina the Residence &amp; the Suites
-9.2/10
-Great48 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
 No. 7 of Premium Hotels in Nairobi
+Great
+48 reviews
+9.2
 2 Bedroom Executive Penthouse
-x4
 Entire unit 168㎡
 2 bedrooms
 3 beds
+4 adults
 Free Cancellation
 Breakfast included
-Earn ₹ 2,509.03 in Trip Coins
 Only 1 left at this price
-Special Discount
-20% off
 ₹ 36,709
 ₹ 28,347
 Total price: ₹ 167,247
 1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+Special Discount
+20% off
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Pullman Nairobi Upper Hill
+Renovated in 2025
+Ad
+Near Giraffe manorMap
+No. 3 of 4-Star Select Hotels in Nairobi
+Amazing
+60 reviews
+9.4
+2
+×
+Deluxe Room With Two Double Beds
+2 double beds
+2 adults
+Last booked 24 mins ago on our site
+₹ 13,589
+Total price: ₹ 169,867
+2 rooms × 5 nights incl. taxes &amp; fees
+Check Availability</t>
   </si>
   <si>
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
 Ad
-9.7/10
-Amazing95 reviews
-"Great location"
-"Great service"
-Near Village MarketShow on Map
+Near Village MarketMap
+Great locationGreat service
 No. 13 of 4-Star Select Hotels in Nairobi
+Amazing
+95 reviews
+9.7
 Family Room
-x4
+2 single beds
+4 adults
 Free Cancellation
 ₹ 20,796
 Total price: ₹ 133,093
@@ -264,11 +292,13 @@
   </si>
   <si>
     <t>Executive Residency by Best Western Nairobi
-9.2/10
-Great46 reviews
-Near The Sarit Expo CentreShow on Map
+Near The Sarit Expo CentreMap
+Great
+46 reviews
+9.2
 Two Bedroom Apartment
-x4
+1 queen bed and 2 single beds
+4 adults
 Breakfast included
 ₹ 18,488
 Total price: ₹ 113,703
@@ -276,36 +306,55 @@
 Check Availability</t>
   </si>
   <si>
+    <t>Maskan Suites
+Near Yaya CentreMap
+Very good
+34 reviews
+8.9
+Superior Apartment, 2 Bedrooms, Private Bathroom, City View
+Entire apartment
+2 bedrooms
+2 beds
+4 adults
+₹ 6,952
+Total price: ₹ 40,981
+1 room × 5 nights incl. taxes &amp; fees
+Member deal
+Check Availability</t>
+  </si>
+  <si>
     <t>Highlands Suites Hotel Apartments
-8.3/10
-Very good27 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Very good
+27 reviews
+8.3
 Two-Bedroom Apartment
-x4
 Entire unit
 2 bedrooms
 2 beds
+4 adults
 Free Cancellation
 Only 1 left at this price
+₹ 11,072
+₹ 9,861
+Total price: ₹ 58,285
+1 room × 5 nights incl. taxes &amp; fees
 Special Discount
 10% off
-₹ 11,072
-₹ 9,861
-Total price: ₹ 58,284
-1 room × 5 nights incl. taxes &amp; fees
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Mövenpick Hotel &amp; Residences Nairobi
-9.0/10
-Great96 reviews
-"Great service"
-"Great location"
-Near The Sarit Expo CentreShow on Map
+Near The Sarit Expo CentreMap
+Great serviceGreat location
 No. 2 of Gourmet Hotels in Nairobi
+Great
+96 reviews
+9.0
 Two-Bedroom Residence
-x4
+1 king bed and 2 single beds
+4 adults
 Free Cancellation
 Last booked 8 hrs ago
 ₹ 21,241
@@ -314,32 +363,17 @@
 Check Availability</t>
   </si>
   <si>
-    <t>Maskan Suites
-8.9/10
-Very good34 reviews
-Near Yaya CentreShow on Map
-Superior Apartment, 2 Bedrooms, Private Bathroom, City View
-x4
-Entire apartment
-2 bedrooms
-2 beds
-Member deal
-₹ 6,952
-Total price: ₹ 40,981
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
     <t>Arcadia Hotel
 Renovated in 2025
-8.8/10
-Very good13 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Very good
+13 reviews
+8.8
 Two-Bedroom Suite
-x4
 Entire unit 110㎡
 2 bedrooms
 2 beds
+4 adults
 Free Cancellation
 Only 5 left at this price
 ₹ 7,711
@@ -351,15 +385,16 @@
   <si>
     <t>Windsor Golf Hotel &amp; Country Club
 New to Trip.com
-8.8/10
-Very good64 reviews
-9.7 km from centreShow on Map
+9.7 km from centreMap
 No. 6 of 4-Star Select Hotels in Nairobi
+Very good
+64 reviews
+8.8
 Two- Bedroom Cottage
-x4
 Entire unit 65㎡
 1 bedroom
 4 beds
+4 adults
 Breakfast included
 ₹ 36,972
 Total price: ₹ 218,132
@@ -369,11 +404,13 @@
   <si>
     <t>Lavington Residences By Trianum
 Opened in 2025
-9.6/10
-Amazing7 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Amazing
+7 reviews
+9.6
 Executive Two-Bedroom Apartment
-x4
+2 queen beds
+4 adults
 Only 1 left at this price
 ₹ 9,572
 Total price: ₹ 56,472
@@ -383,14 +420,15 @@
   </si>
   <si>
     <t>Four Points by Sheraton Nairobi Hurlingham
-8.8/10
-Very good60 reviews
-"Great service"
-"Delicious breakfast"
-Near Giraffe manorShow on Map
+Near Giraffe manorMap
+Great serviceDelicious breakfast
+Very good
+60 reviews
+8.8
 Executive Suite
-x4
-Last booked 2 hrs ago
+1 king bed
+4 adults
+Last booked 3 hrs ago
 ₹ 29,288
 Total price: ₹ 187,487
 1 room × 5 nights incl. taxes &amp; fees
@@ -398,40 +436,23 @@
   </si>
   <si>
     <t>Somerset Westview Nairobi
-8.9/10
-Very good55 reviews
-"Great service"
-"Great stay!"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Great serviceGreat stay!
 No. 20 of 4-Star Select Hotels in Nairobi
+Very good
+55 reviews
+8.9
 Two-Bedroom Suite
-x4
-Earn ₹ 1,126.67 in Trip Coins
-Special Discount
-15% off
+1 king bed and 1 single bed
+4 adults
 ₹ 21,927
 ₹ 17,951
 Total price: ₹ 112,644
 1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Pullman Nairobi Upper Hill
-Renovated in 2025
-Ad
-9.4/10
-Amazing60 reviews
-Near Giraffe manorShow on Map
-No. 3 of 4-Star Select Hotels in Nairobi
-2
-Deluxe Room With Two Double Beds
-Earn ₹ 1,699.49 in Trip Coins
-Last booked 1 min ago on our site
-₹ 13,589
-Total price: ₹ 169,867
-2 rooms × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+Special Discount
+15% off
+Check Availability
+Sign in for member prices</t>
   </si>
 </sst>
 </file>
@@ -539,7 +560,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>13</v>
@@ -553,67 +574,70 @@
         <v>15</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>21</v>
+      </c>
       <c r="B13" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -23,15 +23,72 @@
     <t>After Top Reviewed</t>
   </si>
   <si>
+    <t>YEZA INN
+Opened in 2025
+Near Yaya CentreMap
+Very good
+2 reviews
+8.5
+2-bed Room
+2 queen beds
+4 adults
+Free Cancellation
+Breakfast included
+Only 1 left at this price
+₹ 6,223
+₹ 5,304
+Total price: ₹ 31,340
+1 room × 5 nights incl. taxes &amp; fees
+Special Discount
+13% off
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Woodmere Serviced Apartment
+Near Yaya CentreMap
+Great
+70 reviews
+9.2
+Standard Two-Bedroom Apartment
+Entire unit 59㎡
+2 bedrooms
+2 beds
+4 adults
+₹ 5,196
+Total price: ₹ 30,631
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
+Near Village MarketMap
+Great serviceGreat location
+No. 13 of 4-Star Select Hotels in Nairobi
+Amazing
+94 reviews
+9.7
+Family Room
+2 single beds
+4 adults
+Free Cancellation
+Last booked 1 hr ago
+₹ 22,213
+Total price: ₹ 142,163
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
     <t>Javilla Eagles Safari Guest house
-7.7/10
-Good34 reviews
-8.4 km from centreShow on Map
+8.4 km from centreMap
+Good
+34 reviews
+7.7
 Comfort Apartment, 2 Bedrooms, Non Smoking, Ground Floor
-x4
 Entire unit 55㎡
 2 bedrooms
 2 beds
+4 adults
 Only 1 left at this price
 ₹ 5,080
 Total price: ₹ 29,466
@@ -39,63 +96,14 @@
 Check Availability</t>
   </si>
   <si>
-    <t>Woodmere Serviced Apartment
-9.2/10
-Great70 reviews
-Near Yaya CentreShow on Map
-Standard Two-Bedroom Apartment
-x4
-Entire unit 59㎡
-2 bedrooms
-2 beds
-₹ 5,206
-Total price: ₹ 30,686
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
-9.7/10
-Amazing94 reviews
-"Great service"
-"Great location"
-Near Village MarketShow on Map
-No. 13 of 4-Star Select Hotels in Nairobi
-Family Room
-x4
-Free Cancellation
-₹ 22,213
-Total price: ₹ 142,163
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>YEZA INN
-Opened in 2025
-8.5/10
-Very good2 reviews
-Near Yaya CentreShow on Map
-2-bed Room
-x4
-Free Cancellation
-Breakfast included
-Only 1 left at this price
-Special Discount
-11% off
-₹ 6,202
-₹ 5,437
-Total price: ₹ 32,145
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
     <t>Kenya Comfort Suites
-7.9/10
-Good11 reviews
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Good
+11 reviews
+7.9
 Standard Quadruple Room
-x4
+4 single beds
+4 adults
 ₹ 4,806
 Total price: ₹ 29,521
 1 room × 5 nights incl. taxes &amp; fees
@@ -103,17 +111,18 @@
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi
-9.8/10
-Outstanding46 reviews
-"Great stay!"
-"Great service"
-Near National Museum of KenyaShow on Map
+Near National Museum of KenyaMap
+Great stay!Great service
 No. 1 of Luxury Hotels in Nairobi
+Outstanding
+46 reviews
+9.8
 3 Bedroom Apartment, Bedroom 1: 1 King, Bedroom 2: 1 King, Bedroom 3: 2 Doubles
-x4
+1 king bed
+4 adults
 Free Cancellation
 Breakfast included
-Last booked 1 hr ago
+Last booked 7 hrs ago
 ₹ 206,018
 Total price: ₹ 1,300,589
 1 room × 5 nights incl. taxes &amp; fees
@@ -121,82 +130,82 @@
   </si>
   <si>
     <t>The King Post
-7.7/10
-Good17 reviews
-Near The Sarit Expo CentreShow on Map
+Near The Sarit Expo CentreMap
+Good
+17 reviews
+7.7
 Three-Bedroom Apartment
-x6
 Entire unit
 3 bedrooms
 4 beds
+6 adults
 ₹ 4,457
 Total price: ₹ 26,270
 1 room × 5 nights incl. taxes &amp; fees
+Member deal
 Check Availability</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments
-9.4/10
-Amazing49 reviews
-"Great service"
-"Great amenities"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Great serviceGreat amenities
 No. 19 of 4-Star Select Hotels in Nairobi
+Amazing
+49 reviews
+9.4
 Two-Bedroom Luxury Apartment
-x4
 Entire unit 125㎡
 2 bedrooms
 2 beds
-Free Cancellation
-Earn ₹ 966.45 in Trip Coins
-Limited Time Offer
-15% off
+4 adults
+Free Cancellation
 ₹ 19,719
 ₹ 16,376
 Total price: ₹ 96,618
 1 room × 5 nights incl. taxes &amp; fees
+Limited Time Offer
+15% off
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Lux Suites Riara One Residency Angama
 Opened in 2025
-9.9/10
-Outstanding18 reviews
-"Clean and tidy"
-"Great location"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Clean and tidyGreat location
+Outstanding
+18 reviews
+9.9
 Family Room
-x4
 Entire apartment 98㎡
 2 bedrooms
 2 beds
+4 adults
 Free Cancellation
 Breakfast included
-Earn ₹ 1,329.10 in Trip Coins
 Only 5 left at this price
-Special Discount
-8% off
 ₹ 16,476
 ₹ 15,017
 Total price: ₹ 88,594
 1 room × 5 nights incl. taxes &amp; fees
+Special Discount
+8% off
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Pan Pacific Serviced Suites Nairobi
-9.5/10
-Amazing48 reviews
-"Great rooms"
-"Great location"
-Near National Museum of KenyaShow on Map
+Near National Museum of KenyaMap
+Great roomsGreat location
 No. 13 of Premium Hotels in Nairobi
+Amazing
+48 reviews
+9.5
 Two Bedroom Suite King &amp; Twin
-x4
 Entire unit 108㎡
 2 bedrooms
 2 beds
+4 adults
 ₹ 26,438
 Total price: ₹ 165,237
 1 room × 5 nights incl. taxes &amp; fees
@@ -204,13 +213,14 @@
   </si>
   <si>
     <t>Fedha Residences by Trianum
-9.0/10
-Great47 reviews
-"Great service"
-"Great location"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Great serviceGreat location
+Great
+47 reviews
+9.0
 Executive Two Bedrooms Apartment
-x4
+2 queen beds
+4 adults
 Only 5 left at this price
 ₹ 8,882
 Total price: ₹ 52,404
@@ -219,140 +229,148 @@
 Sign in for member prices</t>
   </si>
   <si>
+    <t>Arcadia Hotel
+Renovated in 2025
+Near Yaya CentreMap
+Very good
+13 reviews
+8.8
+Two-Bedroom Suite
+Entire unit 110㎡
+2 bedrooms
+2 beds
+4 adults
+Free Cancellation
+Only 5 left at this price
+₹ 7,738
+Total price: ₹ 44,879
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Pullman Nairobi Upper Hill
+Renovated in 2025
+Ad
+Near Giraffe manorMap
+No. 3 of 4-Star Select Hotels in Nairobi
+Amazing
+60 reviews
+9.4
+2
+×
+Deluxe Room With Two Double Beds
+2 double beds
+2 adults
+Last booked 4 hrs ago
+₹ 14,506
+Total price: ₹ 181,330
+2 rooms × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Executive Residency by Best Western Nairobi
+Near The Sarit Expo CentreMap
+Great
+46 reviews
+9.2
+Two Bedroom Apartment
+1 queen bed and 2 single beds
+4 adults
+Breakfast included
+₹ 18,552
+Total price: ₹ 114,093
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Lavington Residences By Trianum
+Opened in 2025
+Near Yaya CentreMap
+Amazing
+7 reviews
+9.6
+Executive Two-Bedroom Apartment
+2 queen beds
+4 adults
+Only 1 left at this price
+₹ 9,604
+Total price: ₹ 56,666
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
+    <t>Mövenpick Hotel &amp; Residences Nairobi
+Near The Sarit Expo CentreMap
+Great serviceGreat location
+No. 2 of Gourmet Hotels in Nairobi
+Great
+96 reviews
+9.0
+Two-Bedroom Residence
+1 king bed and 2 single beds
+4 adults
+Free Cancellation
+₹ 22,047
+Total price: ₹ 137,791
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Kester International Apartment Hotel
+Opened in 2025
+Near Yaya CentreMap
+Great serviceGreat rooms
+Outstanding
+28 reviews
+9.8
+Boutique 2-bedroom And 1-living Room Suite
+Entire apartment 95㎡
+2 bedrooms
+3 beds
+4 adults
+Only 2 left at this price
+₹ 7,223
+₹ 5,996
+Total price: ₹ 34,776
+1 room × 5 nights incl. taxes &amp; fees
+Special Discount
+15% off
+Check Availability
+Sign in for member prices</t>
+  </si>
+  <si>
     <t>Eldon Apartments &amp; Suites
-7.1/10
+Near Wilson AirportMap
 5 reviews
-Near Wilson AirportShow on Map
+7.1
 Standard Two-Bedroom Apartment
-x4
 Entire apartment 18㎡
 2 bedrooms
 3 beds
-Special Discount
-₹ 142 off
+4 adults
 ₹ 5,670
 ₹ 5,528
 Total price: ₹ 32,625
 1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Pullman Nairobi Upper Hill
-Renovated in 2025
-Ad
-9.4/10
-Amazing60 reviews
-Near Giraffe manorShow on Map
-No. 3 of 4-Star Select Hotels in Nairobi
-2
-Deluxe Room With Two Double Beds
-Free Cancellation
-Earn ₹ 1,814.14 in Trip Coins
-Last booked 1 hr ago
-₹ 14,506
-Total price: ₹ 181,330
-2 rooms × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Executive Residency by Best Western Nairobi
-9.2/10
-Great46 reviews
-Near The Sarit Expo CentreShow on Map
-Two Bedroom Apartment
-x4
-Breakfast included
-₹ 18,552
-Total price: ₹ 114,093
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Arcadia Hotel
-Renovated in 2025
-8.8/10
-Very good13 reviews
-Near Yaya CentreShow on Map
-Two-Bedroom Suite
-x4
-Entire unit 110㎡
-2 bedrooms
-2 beds
-Free Cancellation
-Only 5 left at this price
-₹ 7,738
-Total price: ₹ 44,879
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Mövenpick Hotel &amp; Residences Nairobi
-9.0/10
-Great96 reviews
-"Great service"
-"Great location"
-Near The Sarit Expo CentreShow on Map
-No. 2 of Gourmet Hotels in Nairobi
-Two-Bedroom Residence
-x4
-Free Cancellation
-₹ 20,758
-Total price: ₹ 129,735
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Kester International Apartment Hotel
-Opened in 2025
-9.8/10
-Outstanding28 reviews
-"Great service"
-"Great rooms"
-Near Yaya CentreShow on Map
-Boutique 2-bedroom And 1-living Room Suite
-x4
-Entire apartment 95㎡
-2 bedrooms
-3 beds
-Earn ₹ 549.41 in Trip Coins
-Only 2 left at this price
 Special Discount
-11% off
-₹ 7,173
-₹ 6,311
-Total price: ₹ 36,605
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Lavington Residences By Trianum
-Opened in 2025
-9.6/10
-Amazing7 reviews
-Near Yaya CentreShow on Map
-Executive Two-Bedroom Apartment
-x4
-Only 1 left at this price
-₹ 9,604
-Total price: ₹ 56,666
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
+₹ 142 off
+Check Availability</t>
   </si>
   <si>
     <t>Windsor Golf Hotel &amp; Country Club
 New to Trip.com
-8.8/10
-Very good64 reviews
-9.7 km from centreShow on Map
+9.7 km from centreMap
 No. 6 of 4-Star Select Hotels in Nairobi
+Very good
+64 reviews
+8.8
 Two- Bedroom Cottage
-x4
 Entire unit 65㎡
 1 bedroom
 4 beds
+4 adults
 Breakfast included
 ₹ 37,095
 Total price: ₹ 218,862
@@ -360,84 +378,93 @@
 Check Availability</t>
   </si>
   <si>
+    <t>Maskan Suites
+Near Yaya CentreMap
+Very good
+34 reviews
+8.9
+Superior Apartment, 2 Bedrooms, Private Bathroom, City View
+Entire apartment
+2 bedrooms
+2 beds
+4 adults
+₹ 6,976
+Total price: ₹ 41,121
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
     <t>Four Points by Sheraton Nairobi Hurlingham
-8.8/10
-Very good60 reviews
-"Great service"
-"Delicious breakfast"
-Near Giraffe manorShow on Map
+Near Giraffe manorMap
+Great serviceDelicious breakfast
+Very good
+60 reviews
+8.8
 Executive Suite
-x4
+1 king bed
+4 adults
 ₹ 29,671
 Total price: ₹ 189,941
 1 room × 5 nights incl. taxes &amp; fees
 Check Availability</t>
   </si>
   <si>
-    <t>Maskan Suites
-8.9/10
-Very good34 reviews
-Near Yaya CentreShow on Map
-Superior Apartment, 2 Bedrooms, Private Bathroom, City View
-x4
-Entire apartment
-2 bedrooms
-2 beds
-Free Cancellation
-₹ 6,976
-Total price: ₹ 41,121
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
     <t>Somerset Westview Nairobi
-8.9/10
-Very good55 reviews
-"Great rooms"
-"Great service"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Great roomsGreat service
 No. 20 of 4-Star Select Hotels in Nairobi
+Very good
+55 reviews
+8.9
 Two-Bedroom Suite
-x4
-Earn ₹ 1,168.63 in Trip Coins
-Special Discount
-15% off
+1 king bed and 1 single bed
+4 adults
 ₹ 22,732
 ₹ 18,610
 Total price: ₹ 116,777
 1 room × 5 nights incl. taxes &amp; fees
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Mercure Nairobi Upper Hill
-Ad
-8.9/10
-Very good60 reviews
-Near Giraffe manorShow on Map
-2
-Classic Superior King Room
-Free Cancellation
-₹ 11,242
-Total price: ₹ 140,531
-2 rooms × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+Special Discount
+15% off
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>DoubleTree by Hilton Nairobi Hurlingham
 Ad
-9.0/10
-Great68 reviews
-"Great service"
-"Great stay!"
-Near Yaya CentreShow on Map
+Near Yaya CentreMap
+Great serviceGreat stay!
+Great
+68 reviews
+9.0
 2
+×
 King Room
-Free Cancellation
-Last booked 11 hrs ago
+1 king bed
+2 adults
+Free Cancellation
+Last booked 17 hrs ago
 ₹ 11,133
 Total price: ₹ 139,162
 2 rooms × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Skynest Residences by CityBlue, Nairobi - Official
+Near The Sarit Expo CentreMap
+Very good
+53 reviews
+8.5
+Deluxe Two-Bedroom Suite
+Entire unit
+2 bedrooms
+2 beds
+4 adults
+₹ 20,336
+₹ 17,980
+Total price: ₹ 106,083
+1 room × 5 nights incl. taxes &amp; fees
+Member deal
+10% off
 Check Availability</t>
   </si>
 </sst>
@@ -590,18 +617,18 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>10</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>18</v>
@@ -615,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Hotels Sort Verification Details.xlsx
+++ b/Excel Output/Hotels Sort Verification Details.xlsx
@@ -25,36 +25,33 @@
   <si>
     <t>YEZA INN
 Opened in 2025
-Near Yaya CentreMap
-Very good
-2 reviews
-8.5
+8.5/10
+Very good2 reviews
+Near Yaya CentreShow on Map
 2-bed Room
-2 queen beds
-4 adults
+x4
 Free Cancellation
 Breakfast included
 Only 1 left at this price
+Special Discount
+13% off
 ₹ 6,223
 ₹ 5,304
 Total price: ₹ 31,340
 1 room × 5 nights incl. taxes &amp; fees
-Special Discount
-13% off
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Woodmere Serviced Apartment
-Near Yaya CentreMap
-Great
-70 reviews
-9.2
+9.2/10
+Great70 reviews
+Near Yaya CentreShow on Map
 Standard Two-Bedroom Apartment
+x4
 Entire unit 59㎡
 2 bedrooms
 2 beds
-4 adults
 ₹ 5,196
 Total price: ₹ 30,631
 1 room × 5 nights incl. taxes &amp; fees
@@ -62,17 +59,16 @@
   </si>
   <si>
     <t>Holiday Inn NAIROBI TWO RIVERS MALL by IHG
-Near Village MarketMap
-Great serviceGreat location
+9.7/10
+Amazing94 reviews
+"Great service"
+"Great location"
+Near Village MarketShow on Map
 No. 13 of 4-Star Select Hotels in Nairobi
-Amazing
-94 reviews
-9.7
 Family Room
-2 single beds
-4 adults
-Free Cancellation
-Last booked 1 hr ago
+x4
+Free Cancellation
+Last booked 2 hrs ago
 ₹ 22,213
 Total price: ₹ 142,163
 1 room × 5 nights incl. taxes &amp; fees
@@ -80,15 +76,14 @@
   </si>
   <si>
     <t>Javilla Eagles Safari Guest house
-8.4 km from centreMap
-Good
-34 reviews
-7.7
+7.7/10
+Good34 reviews
+8.4 km from centreShow on Map
 Comfort Apartment, 2 Bedrooms, Non Smoking, Ground Floor
+x4
 Entire unit 55㎡
 2 bedrooms
 2 beds
-4 adults
 Only 1 left at this price
 ₹ 5,080
 Total price: ₹ 29,466
@@ -97,13 +92,11 @@
   </si>
   <si>
     <t>Kenya Comfort Suites
-Near Yaya CentreMap
-Good
-11 reviews
-7.9
+7.9/10
+Good11 reviews
+Near Yaya CentreShow on Map
 Standard Quadruple Room
-4 single beds
-4 adults
+x4
 ₹ 4,806
 Total price: ₹ 29,521
 1 room × 5 nights incl. taxes &amp; fees
@@ -111,15 +104,14 @@
   </si>
   <si>
     <t>JW Marriott Hotel Nairobi
-Near National Museum of KenyaMap
-Great stay!Great service
+9.8/10
+Outstanding46 reviews
+"Great stay!"
+"Great service"
+Near National Museum of KenyaShow on Map
 No. 1 of Luxury Hotels in Nairobi
-Outstanding
-46 reviews
-9.8
 3 Bedroom Apartment, Bedroom 1: 1 King, Bedroom 2: 1 King, Bedroom 3: 2 Doubles
-1 king bed
-4 adults
+x4
 Free Cancellation
 Breakfast included
 Last booked 7 hrs ago
@@ -130,82 +122,83 @@
   </si>
   <si>
     <t>The King Post
-Near The Sarit Expo CentreMap
-Good
-17 reviews
-7.7
+7.7/10
+Good17 reviews
+Near The Sarit Expo CentreShow on Map
 Three-Bedroom Apartment
+x6
 Entire unit
 3 bedrooms
 4 beds
-6 adults
+Member deal
 ₹ 4,457
 Total price: ₹ 26,270
 1 room × 5 nights incl. taxes &amp; fees
-Member deal
 Check Availability</t>
   </si>
   <si>
     <t>Yaya Hotel &amp; Apartments
-Near Yaya CentreMap
-Great serviceGreat amenities
+9.4/10
+Amazing49 reviews
+"Great service"
+"Great amenities"
+Near Yaya CentreShow on Map
 No. 19 of 4-Star Select Hotels in Nairobi
-Amazing
-49 reviews
-9.4
 Two-Bedroom Luxury Apartment
+x4
 Entire unit 125㎡
 2 bedrooms
 2 beds
-4 adults
-Free Cancellation
+Free Cancellation
+Earn ₹ 966.45 in Trip Coins
+Limited Time Offer
+15% off
 ₹ 19,719
 ₹ 16,376
 Total price: ₹ 96,618
 1 room × 5 nights incl. taxes &amp; fees
-Limited Time Offer
-15% off
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Lux Suites Riara One Residency Angama
 Opened in 2025
-Near Yaya CentreMap
-Clean and tidyGreat location
-Outstanding
-18 reviews
-9.9
+9.9/10
+Outstanding18 reviews
+"Clean and tidy"
+"Great location"
+Near Yaya CentreShow on Map
 Family Room
+x4
 Entire apartment 98㎡
 2 bedrooms
 2 beds
-4 adults
 Free Cancellation
 Breakfast included
+Earn ₹ 1,329.10 in Trip Coins
 Only 5 left at this price
+Special Discount
+8% off
 ₹ 16,476
 ₹ 15,017
 Total price: ₹ 88,594
 1 room × 5 nights incl. taxes &amp; fees
-Special Discount
-8% off
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>Pan Pacific Serviced Suites Nairobi
-Near National Museum of KenyaMap
-Great roomsGreat location
+9.5/10
+Amazing48 reviews
+"Great rooms"
+"Great location"
+Near National Museum of KenyaShow on Map
 No. 13 of Premium Hotels in Nairobi
-Amazing
-48 reviews
-9.5
 Two Bedroom Suite King &amp; Twin
+x4
 Entire unit 108㎡
 2 bedrooms
 2 beds
-4 adults
 ₹ 26,438
 Total price: ₹ 165,237
 1 room × 5 nights incl. taxes &amp; fees
@@ -213,14 +206,13 @@
   </si>
   <si>
     <t>Fedha Residences by Trianum
-Near Yaya CentreMap
-Great serviceGreat location
-Great
-47 reviews
-9.0
+9.0/10
+Great47 reviews
+"Great service"
+"Great location"
+Near Yaya CentreShow on Map
 Executive Two Bedrooms Apartment
-2 queen beds
-4 adults
+x4
 Only 5 left at this price
 ₹ 8,882
 Total price: ₹ 52,404
@@ -229,17 +221,64 @@
 Sign in for member prices</t>
   </si>
   <si>
+    <t>Eldon Apartments &amp; Suites
+7.1/10
+5 reviews
+Near Wilson AirportShow on Map
+Standard Two-Bedroom Apartment
+x4
+Entire apartment 18㎡
+2 bedrooms
+3 beds
+Special Discount
+₹ 142 off
+₹ 5,670
+₹ 5,528
+Total price: ₹ 32,625
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Pullman Nairobi Upper Hill
+Renovated in 2025
+Ad
+9.4/10
+Amazing60 reviews
+Near Giraffe manorShow on Map
+No. 3 of 4-Star Select Hotels in Nairobi
+2
+Deluxe Room With Two Double Beds
+Earn ₹ 1,814.14 in Trip Coins
+Last booked 5 hrs ago
+₹ 14,506
+Total price: ₹ 181,330
+2 rooms × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Executive Residency by Best Western Nairobi
+9.2/10
+Great46 reviews
+Near The Sarit Expo CentreShow on Map
+Two Bedroom Apartment
+x4
+Breakfast included
+₹ 18,552
+Total price: ₹ 114,093
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
     <t>Arcadia Hotel
 Renovated in 2025
-Near Yaya CentreMap
-Very good
-13 reviews
-8.8
+8.8/10
+Very good13 reviews
+Near Yaya CentreShow on Map
 Two-Bedroom Suite
+x4
 Entire unit 110㎡
 2 bedrooms
 2 beds
-4 adults
 Free Cancellation
 Only 5 left at this price
 ₹ 7,738
@@ -249,50 +288,53 @@
 Sign in for member prices</t>
   </si>
   <si>
-    <t>Pullman Nairobi Upper Hill
-Renovated in 2025
-Ad
-Near Giraffe manorMap
-No. 3 of 4-Star Select Hotels in Nairobi
-Amazing
-60 reviews
-9.4
-2
-×
-Deluxe Room With Two Double Beds
-2 double beds
-2 adults
-Last booked 4 hrs ago
-₹ 14,506
-Total price: ₹ 181,330
-2 rooms × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Executive Residency by Best Western Nairobi
-Near The Sarit Expo CentreMap
-Great
-46 reviews
-9.2
-Two Bedroom Apartment
-1 queen bed and 2 single beds
-4 adults
-Breakfast included
-₹ 18,552
-Total price: ₹ 114,093
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
+    <t>Mövenpick Hotel &amp; Residences Nairobi
+9.0/10
+Great96 reviews
+"Great service"
+"Great location"
+Near The Sarit Expo CentreShow on Map
+No. 2 of Gourmet Hotels in Nairobi
+Two-Bedroom Residence
+x4
+Free Cancellation
+₹ 22,047
+Total price: ₹ 137,791
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability</t>
+  </si>
+  <si>
+    <t>Kester International Apartment Hotel
+Opened in 2025
+9.8/10
+Outstanding28 reviews
+"Great service"
+"Great rooms"
+Near Yaya CentreShow on Map
+Boutique 2-bedroom And 1-living Room Suite
+x4
+Entire apartment 95㎡
+2 bedrooms
+3 beds
+Earn ₹ 522.21 in Trip Coins
+Only 2 left at this price
+Special Discount
+15% off
+₹ 7,223
+₹ 5,996
+Total price: ₹ 34,776
+1 room × 5 nights incl. taxes &amp; fees
+Check Availability
+Sign in for member prices</t>
   </si>
   <si>
     <t>Lavington Residences By Trianum
 Opened in 2025
-Near Yaya CentreMap
-Amazing
-7 reviews
-9.6
+9.6/10
+Amazing7 reviews
+Near Yaya CentreShow on Map
 Executive Two-Bedroom Apartment
-2 queen beds
-4 adults
+x4
 Only 1 left at this price
 ₹ 9,604
 Total price: ₹ 56,666
@@ -301,76 +343,17 @@
 Sign in for member prices</t>
   </si>
   <si>
-    <t>Mövenpick Hotel &amp; Residences Nairobi
-Near The Sarit Expo CentreMap
-Great serviceGreat location
-No. 2 of Gourmet Hotels in Nairobi
-Great
-96 reviews
-9.0
-Two-Bedroom Residence
-1 king bed and 2 single beds
-4 adults
-Free Cancellation
-₹ 22,047
-Total price: ₹ 137,791
-1 room × 5 nights incl. taxes &amp; fees
-Check Availability</t>
-  </si>
-  <si>
-    <t>Kester International Apartment Hotel
-Opened in 2025
-Near Yaya CentreMap
-Great serviceGreat rooms
-Outstanding
-28 reviews
-9.8
-Boutique 2-bedroom And 1-living Room Suite
-Entire apartment 95㎡
-2 bedrooms
-3 beds
-4 adults
-Only 2 left at this price
-₹ 7,223
-₹ 5,996
-Total price: ₹ 34,776
-1 room × 5 nights incl. taxes &amp; fees
-Special Discount
-15% off
-Check Availability
-Sign in for member prices</t>
-  </si>
-  <si>
-    <t>Eldon Apartments &amp; Suites
-Near Wilson AirportMap
-5 reviews
-7.1
-Standard Two-Bedroom Apartment
-Entire apartment 18㎡
-2 bedrooms
-3 beds
-4 adults
-₹ 5,670
-₹ 5,528
-Total price: ₹ 32,625
-1 room × 5 nights incl. taxes &amp; fees
-Special Discount
-₹ 142 off
-Check Availability</t>
-  </si>
-  <si>
     <t>Windsor Golf Hotel &amp; Country Club
 New to Trip.com
-9.7 km from centreMap
+8.8/10
+Very good64 reviews
+9.7 km from centreShow on Map
 No. 6 of 4-Star Select Hotels in Nairobi
-Very good
-64 reviews
-8.8
 Two- Bedroom Cottage
+x4
 Entire unit 65㎡
 1 bedroom
 4 beds
-4 adults
 Breakfast included
 ₹ 37,095
 Total price: ₹ 218,862
@@ -379,15 +362,14 @@
   </si>
   <si>
     <t>Maskan Suites
-Near Yaya CentreMap
-Very good
-34 reviews
-8.9
+8.9/10
+Very good34 reviews
+Near Yaya CentreShow on Map
 Superior Apartment, 2 Bedrooms, Private Bathroom, City View
+x4
 Entire apartment
 2 bedrooms
 2 beds
-4 adults
 ₹ 6,976
 Total price: ₹ 41,121
 1 room × 5 nights incl. taxes &amp; fees
@@ -395,14 +377,13 @@
   </si>
   <si>
     <t>Four Points by Sheraton Nairobi Hurlingham
-Near Giraffe manorMap
-Great serviceDelicious breakfast
-Very good
-60 reviews
-8.8
+8.8/10
+Very good60 reviews
+"Great service"
+"Delicious breakfast"
+Near Giraffe manorShow on Map
 Executive Suite
-1 king bed
-4 adults
+x4
 ₹ 29,671
 Total price: ₹ 189,941
 1 room × 5 nights incl. taxes &amp; fees
@@ -410,39 +391,36 @@
   </si>
   <si>
     <t>Somerset Westview Nairobi
-Near Yaya CentreMap
-Great roomsGreat service
+8.9/10
+Very good55 reviews
+"Great rooms"
+"Great service"
+Near Yaya CentreShow on Map
 No. 20 of 4-Star Select Hotels in Nairobi
-Very good
-55 reviews
-8.9
 Two-Bedroom Suite
-1 king bed and 1 single bed
-4 adults
+x4
+Earn ₹ 1,168.63 in Trip Coins
+Special Discount
+15% off
 ₹ 22,732
 ₹ 18,610
 Total price: ₹ 116,777
 1 room × 5 nights incl. taxes &amp; fees
-Special Discount
-15% off
 Check Availability
 Sign in for member prices</t>
   </si>
   <si>
     <t>DoubleTree by Hilton Nairobi Hurlingham
 Ad
-Near Yaya CentreMap
-Great serviceGreat stay!
-Great
-68 reviews
-9.0
+9.0/10
+Great68 reviews
+"Great service"
+"Great stay!"
+Near Yaya CentreShow on Map
 2
-×
 King Room
-1 king bed
-2 adults
-Free Cancellation
-Last booked 17 hrs ago
+Free Cancellation
+Last booked 18 hrs ago
 ₹ 11,133
 Total price: ₹ 139,162
 2 rooms × 5 nights incl. taxes &amp; fees
@@ -450,21 +428,20 @@
   </si>
   <si>
     <t>Skynest Residences by CityBlue, Nairobi - Official
-Near The Sarit Expo CentreMap
-Very good
-53 reviews
-8.5
+8.5/10
+Very good53 reviews
+Near The Sarit Expo CentreShow on Map
 Deluxe Two-Bedroom Suite
+x4
 Entire unit
 2 bedrooms
 2 beds
-4 adults
+Member deal
+10% off
 ₹ 20,336
 ₹ 17,980
 Total price: ₹ 106,083
 1 room × 5 nights incl. taxes &amp; fees
-Member deal
-10% off
 Check Availability</t>
   </si>
 </sst>
@@ -628,7 +605,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>18</v>
